--- a/Matching Diagram/Max cruise speed.xlsx
+++ b/Matching Diagram/Max cruise speed.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Airplane-Design-II\Matching Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EF61DE-7705-47CA-B436-59AA7D15B711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium" sheetId="1" r:id="rId1"/>
     <sheet name="Low" sheetId="2" r:id="rId2"/>
     <sheet name="High" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,12 +65,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -78,7 +79,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -86,7 +87,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -94,7 +95,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -102,7 +103,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -111,7 +112,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -307,7 +308,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -333,7 +333,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -476,94 +476,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.21978580189012625</c:v>
+                  <c:v>0.29006795466734375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11067649955750967</c:v>
+                  <c:v>0.14577773194887539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4654998163280403E-2</c:v>
+                  <c:v>9.8011548649476407E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6905447003647969E-2</c:v>
+                  <c:v>7.4376375204844733E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6464675937854256E-2</c:v>
+                  <c:v>6.0393605702120032E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9678294918979895E-2</c:v>
+                  <c:v>5.1237038170348768E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4980136784059472E-2</c:v>
+                  <c:v>4.4838300336265208E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1587117951610247E-2</c:v>
+                  <c:v>4.0163206063236451E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.906419198747515E-2</c:v>
+                  <c:v>3.6637207497577574E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7150331031159953E-2</c:v>
+                  <c:v>3.3915575927077606E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5679426444168308E-2</c:v>
+                  <c:v>3.1778938534875026E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4540739134169338E-2</c:v>
+                  <c:v>3.0081046776395497E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3657603575703193E-2</c:v>
+                  <c:v>2.872065165924138E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2975258679155688E-2</c:v>
+                  <c:v>2.7625432474557236E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2453546312143104E-2</c:v>
+                  <c:v>2.6742354035849066E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2062347875377638E-2</c:v>
+                  <c:v>2.6031639953246376E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1778631498815686E-2</c:v>
+                  <c:v>2.5462872987436436E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.158448350575666E-2</c:v>
+                  <c:v>2.5012395285620454E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.146576151985799E-2</c:v>
+                  <c:v>2.4661529595588861E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1411151640045624E-2</c:v>
+                  <c:v>2.4395334115573996E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1411494994021518E-2</c:v>
+                  <c:v>2.4201713101287749E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1459297958996371E-2</c:v>
+                  <c:v>2.4070770034676225E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1548370150926827E-2</c:v>
+                  <c:v>2.3994329531260107E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1673552916443448E-2</c:v>
+                  <c:v>2.3965578770639977E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.1830512986715889E-2</c:v>
+                  <c:v>2.3978794983680305E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2015583749656939E-2</c:v>
+                  <c:v>2.4029135827266439E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2225641794970087E-2</c:v>
+                  <c:v>2.4112476342448827E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2458009913829752E-2</c:v>
+                  <c:v>2.4225280850127883E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2710380167593192E-2</c:v>
+                  <c:v>2.4364501351079808E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2980752342770021E-2</c:v>
+                  <c:v>2.4527496245977318E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,7 +641,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640747376"/>
@@ -717,7 +717,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640751968"/>
@@ -758,7 +758,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -812,7 +812,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -838,7 +837,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -981,94 +980,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.23948408976038746</c:v>
+                  <c:v>0.31695936167274791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12044919598360608</c:v>
+                  <c:v>0.15915087510401957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.108518743730668E-2</c:v>
+                  <c:v>0.10684635481117487</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1638900198627757E-2</c:v>
+                  <c:v>8.091782608730104E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0159701482997046E-2</c:v>
+                  <c:v>6.5539693991015613E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2664047028890414E-2</c:v>
+                  <c:v>5.5436760208524311E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.744470358136899E-2</c:v>
+                  <c:v>4.8348225462486856E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3648054512963314E-2</c:v>
+                  <c:v>4.3143690114233031E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0799868363968138E-2</c:v>
+                  <c:v>3.919515436450164E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.861560625856031E-2</c:v>
+                  <c:v>3.6125818333735946E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6914198003034195E-2</c:v>
+                  <c:v>3.3695900280399836E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5574930134919353E-2</c:v>
+                  <c:v>3.1745545710135929E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4514231795582434E-2</c:v>
+                  <c:v>3.0164086126850641E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3672409514571002E-2</c:v>
+                  <c:v>2.8872472604762826E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3005688080219976E-2</c:v>
+                  <c:v>2.7812735931633002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2481236083780526E-2</c:v>
+                  <c:v>2.6941399198281545E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2073947153856487E-2</c:v>
+                  <c:v>2.6225215356512267E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1764294112695291E-2</c:v>
+                  <c:v>2.5638325591061474E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1536860767334392E-2</c:v>
+                  <c:v>2.5160315047773621E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1379314163403738E-2</c:v>
+                  <c:v>2.4774851843324255E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1281670480699011E-2</c:v>
+                  <c:v>2.4468714929307883E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1235761139053039E-2</c:v>
+                  <c:v>2.4231087084301831E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1234838180936418E-2</c:v>
+                  <c:v>2.4053032342783005E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1273278308407976E-2</c:v>
+                  <c:v>2.3927104066815502E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.1346357951197142E-2</c:v>
+                  <c:v>2.3847047080533167E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1450080242151875E-2</c:v>
+                  <c:v>2.3807568542818486E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.1581040442587112E-2</c:v>
+                  <c:v>2.3804159737163936E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.1736320205058522E-2</c:v>
+                  <c:v>2.383295604942021E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.1913403712803731E-2</c:v>
+                  <c:v>2.3890625915665511E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2110110591295362E-2</c:v>
+                  <c:v>2.3974281980500927E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,7 +1145,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="540720312"/>
@@ -1222,7 +1221,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="540719984"/>
@@ -1263,7 +1262,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1319,7 +1318,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1345,7 +1343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1488,94 +1486,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.21981537164908649</c:v>
+                  <c:v>0.29006795466734375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11073563907543017</c:v>
+                  <c:v>0.14577773194887539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.474370744016115E-2</c:v>
+                  <c:v>9.8011548649476407E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7023726039488958E-2</c:v>
+                  <c:v>7.4376375204844733E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6612524732655501E-2</c:v>
+                  <c:v>6.0393605702120032E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9855713472741382E-2</c:v>
+                  <c:v>5.1237038170348768E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5187125096781208E-2</c:v>
+                  <c:v>4.4838300336265208E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1823676023292224E-2</c:v>
+                  <c:v>4.0163206063236451E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.933031981811738E-2</c:v>
+                  <c:v>3.6637207497577574E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7446028620762432E-2</c:v>
+                  <c:v>3.3915575927077606E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6004693792731032E-2</c:v>
+                  <c:v>3.1778938534875026E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4895576241692311E-2</c:v>
+                  <c:v>3.0081046776395497E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4042010442186412E-2</c:v>
+                  <c:v>2.872065165924138E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3389235304599156E-2</c:v>
+                  <c:v>2.7625432474557236E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2897092696546818E-2</c:v>
+                  <c:v>2.6742354035849066E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2535464018741604E-2</c:v>
+                  <c:v>2.6031639953246376E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2281317401139897E-2</c:v>
+                  <c:v>2.5462872987436436E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2116739167041117E-2</c:v>
+                  <c:v>2.5012395285620454E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2027586940102695E-2</c:v>
+                  <c:v>2.4661529595588861E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2002546819250578E-2</c:v>
+                  <c:v>2.4395334115573996E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2032459932186724E-2</c:v>
+                  <c:v>2.4201713101287749E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2109832656121819E-2</c:v>
+                  <c:v>2.4070770034676225E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2228474607012525E-2</c:v>
+                  <c:v>2.3994329531260107E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2383227131489391E-2</c:v>
+                  <c:v>2.3965578770639977E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2569756960722082E-2</c:v>
+                  <c:v>2.3978794983680305E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.278439748262338E-2</c:v>
+                  <c:v>2.4029135827266439E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3024025286896777E-2</c:v>
+                  <c:v>2.4112476342448827E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3285963164716688E-2</c:v>
+                  <c:v>2.4225280850127883E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.3567903177440376E-2</c:v>
+                  <c:v>2.4364501351079808E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.3867845111577458E-2</c:v>
+                  <c:v>2.4527496245977318E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,7 +1651,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523088608"/>
@@ -1715,7 +1713,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523081392"/>
@@ -1756,7 +1754,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1812,7 +1810,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1838,7 +1835,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1981,94 +1978,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.23951077470768606</c:v>
+                  <c:v>0.31695936167274791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12050256587820325</c:v>
+                  <c:v>0.15915087510401957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.116524227920241E-2</c:v>
+                  <c:v>0.10684635481117487</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1745639987822079E-2</c:v>
+                  <c:v>8.091782608730104E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0293126219489934E-2</c:v>
+                  <c:v>6.5539693991015613E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2824156712681888E-2</c:v>
+                  <c:v>5.5436760208524311E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.763149821245905E-2</c:v>
+                  <c:v>4.8348225462486856E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3861534091351952E-2</c:v>
+                  <c:v>4.3143690114233031E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1040032889655352E-2</c:v>
+                  <c:v>3.919515436450164E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8882455731546106E-2</c:v>
+                  <c:v>3.6125818333735946E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7207732423318573E-2</c:v>
+                  <c:v>3.3695900280399836E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5895149502502313E-2</c:v>
+                  <c:v>3.1745545710135929E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4861136110463963E-2</c:v>
+                  <c:v>3.0164086126850641E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4045998776751117E-2</c:v>
+                  <c:v>2.8872472604762826E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.340596228969867E-2</c:v>
+                  <c:v>2.7812735931633002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2908195240557799E-2</c:v>
+                  <c:v>2.6941399198281545E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2527591257932338E-2</c:v>
+                  <c:v>2.6225215356512267E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2244623164069728E-2</c:v>
+                  <c:v>2.5638325591061474E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2043874766007401E-2</c:v>
+                  <c:v>2.5160315047773621E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.191301310937533E-2</c:v>
+                  <c:v>2.4774851843324255E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1842054373969182E-2</c:v>
+                  <c:v>2.4468714929307883E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1822829979621792E-2</c:v>
+                  <c:v>2.4231087084301831E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1848591968803746E-2</c:v>
+                  <c:v>2.4053032342783005E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1913717043573887E-2</c:v>
+                  <c:v>2.3927104066815502E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2013481633661632E-2</c:v>
+                  <c:v>2.3847047080533167E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2143888871914943E-2</c:v>
+                  <c:v>2.3807568542818486E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2301534019648763E-2</c:v>
+                  <c:v>2.3804159737163936E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2483498729418749E-2</c:v>
+                  <c:v>2.383295604942021E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2687267184462536E-2</c:v>
+                  <c:v>2.3890625915665511E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2910659010252746E-2</c:v>
+                  <c:v>2.3974281980500927E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2146,7 +2143,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="616388416"/>
@@ -2208,7 +2205,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="616386120"/>
@@ -2249,7 +2246,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2305,7 +2302,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2331,7 +2327,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2474,94 +2470,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.21975923922529753</c:v>
+                  <c:v>0.29006795466734375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11062337422785229</c:v>
+                  <c:v>0.14577773194887539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4575310168794318E-2</c:v>
+                  <c:v>9.8011548649476407E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6799196344333176E-2</c:v>
+                  <c:v>7.4376375204844733E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6331862613710771E-2</c:v>
+                  <c:v>6.0393605702120032E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9518918930007717E-2</c:v>
+                  <c:v>5.1237038170348768E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4794198130258594E-2</c:v>
+                  <c:v>4.4838300336265208E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1374616632980669E-2</c:v>
+                  <c:v>4.0163206063236451E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8825128004016876E-2</c:v>
+                  <c:v>3.6637207497577574E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6884704382872986E-2</c:v>
+                  <c:v>3.3915575927077606E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5387237131052641E-2</c:v>
+                  <c:v>3.1778938534875026E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4221987156224971E-2</c:v>
+                  <c:v>3.0081046776395497E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3312288932930129E-2</c:v>
+                  <c:v>2.872065165924138E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2603381371553929E-2</c:v>
+                  <c:v>2.7625432474557236E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2055106339712648E-2</c:v>
+                  <c:v>2.6742354035849066E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1637345238118489E-2</c:v>
+                  <c:v>2.6031639953246376E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1327066196727834E-2</c:v>
+                  <c:v>2.5462872987436436E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1106355538840108E-2</c:v>
+                  <c:v>2.5012395285620454E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0961070888112745E-2</c:v>
+                  <c:v>2.4661529595588861E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0879898343471679E-2</c:v>
+                  <c:v>2.4395334115573996E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.085367903261888E-2</c:v>
+                  <c:v>2.4201713101287749E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.087491933276503E-2</c:v>
+                  <c:v>2.4070770034676225E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0937428859866793E-2</c:v>
+                  <c:v>2.3994329531260107E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1036048960554717E-2</c:v>
+                  <c:v>2.3965578770639977E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.1166446365998456E-2</c:v>
+                  <c:v>2.3978794983680305E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1324954464110812E-2</c:v>
+                  <c:v>2.4029135827266439E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.1508449844595264E-2</c:v>
+                  <c:v>2.4112476342448827E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.1714255298626233E-2</c:v>
+                  <c:v>2.4225280850127883E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.1940062887560969E-2</c:v>
+                  <c:v>2.4364501351079808E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2183872397909109E-2</c:v>
+                  <c:v>2.4527496245977318E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2639,7 +2635,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627630560"/>
@@ -2701,7 +2697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627628592"/>
@@ -2742,7 +2738,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2798,7 +2794,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2824,7 +2819,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2967,94 +2962,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.239460118536543</c:v>
+                  <c:v>0.31695936167274791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12040125353591712</c:v>
+                  <c:v>0.15915087510401957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1013273765773219E-2</c:v>
+                  <c:v>0.10684635481117487</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1543015303249814E-2</c:v>
+                  <c:v>8.091782608730104E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0039845363774607E-2</c:v>
+                  <c:v>6.5539693991015613E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2520219685823493E-2</c:v>
+                  <c:v>5.5436760208524311E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7276905014457587E-2</c:v>
+                  <c:v>4.8348225462486856E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3456284722207422E-2</c:v>
+                  <c:v>4.3143690114233031E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0584127349367756E-2</c:v>
+                  <c:v>3.919515436450164E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8375894020115446E-2</c:v>
+                  <c:v>3.6125818333735946E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6650514540744841E-2</c:v>
+                  <c:v>3.3695900280399836E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5287275448785517E-2</c:v>
+                  <c:v>3.1745545710135929E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4202605885604103E-2</c:v>
+                  <c:v>3.0164086126850641E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3336812380748192E-2</c:v>
+                  <c:v>2.8872472604762826E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2646119722552677E-2</c:v>
+                  <c:v>2.7812735931633002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2097696502268737E-2</c:v>
+                  <c:v>2.6941399198281545E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1666436348500216E-2</c:v>
+                  <c:v>2.6225215356512267E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1332812083494534E-2</c:v>
+                  <c:v>2.5638325591061474E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1081407514289146E-2</c:v>
+                  <c:v>2.5160315047773621E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0899889686514003E-2</c:v>
+                  <c:v>2.4774851843324255E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.077827477996479E-2</c:v>
+                  <c:v>2.4468714929307883E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0708394214474332E-2</c:v>
+                  <c:v>2.4231087084301831E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0683500032513225E-2</c:v>
+                  <c:v>2.4053032342783005E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0697968936140298E-2</c:v>
+                  <c:v>2.3927104066815502E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0747077355084974E-2</c:v>
+                  <c:v>2.3847047080533167E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0826828422195222E-2</c:v>
+                  <c:v>2.3807568542818486E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0933817398785973E-2</c:v>
+                  <c:v>2.3804159737163936E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.1065125937412894E-2</c:v>
+                  <c:v>2.383295604942021E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.1218238221313614E-2</c:v>
+                  <c:v>2.3890625915665511E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1390973875960763E-2</c:v>
+                  <c:v>2.3974281980500927E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3132,7 +3127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="609791456"/>
@@ -3194,7 +3189,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="609787192"/>
@@ -3235,7 +3230,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6599,7 +6594,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6629,7 +6630,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6664,7 +6671,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6694,7 +6707,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6729,7 +6748,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6759,7 +6784,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7039,16 +7070,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G2" sqref="G2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7062,20 +7093,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>5</v>
       </c>
       <c r="B2" s="4">
         <f>($G$6*(0.5*$G$8*($G$10)^2)*($G$4/(A2))+((A2)/((0.5*$G$8*($G$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.21978580189012625</v>
+        <v>0.29006795466734375</v>
       </c>
       <c r="D2" s="3">
         <v>5</v>
       </c>
       <c r="E2" s="4">
         <f>($J$6*(0.5*$J$8*($J$10)^2)*($J$4/(D2))+(D2)/(((0.5*$J$8*($J$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.23948408976038746</v>
+        <v>0.31695936167274791</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
@@ -7086,20 +7117,20 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B31" si="0">($G$6*(0.5*$G$8*($G$10)^2)*($G$4/(A3))+((A3)/((0.5*$G$8*($G$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.11067649955750967</v>
+        <v>0.14577773194887539</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E31" si="1">($J$6*(0.5*$J$8*($J$10)^2)*($J$4/(D3))+(D3)/(((0.5*$J$8*($J$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.12044919598360608</v>
+        <v>0.15915087510401957</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -7114,20 +7145,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>15</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>7.4654998163280403E-2</v>
+        <v>9.8011548649476407E-2</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>8.108518743730668E-2</v>
+        <v>0.10684635481117487</v>
       </c>
       <c r="G4" s="2">
         <v>0.81950000000000001</v>
@@ -7142,20 +7173,20 @@
         <v>0.37440000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>20</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>5.6905447003647969E-2</v>
+        <v>7.4376375204844733E-2</v>
       </c>
       <c r="D5" s="3">
         <v>20</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>6.1638900198627757E-2</v>
+        <v>8.091782608730104E-2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -7170,48 +7201,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>25</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>4.6464675937854256E-2</v>
+        <v>6.0393605702120032E-2</v>
       </c>
       <c r="D6" s="3">
         <v>25</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>5.0159701482997046E-2</v>
+        <v>6.5539693991015613E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>1.231961E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="H6" s="2">
         <v>9.5</v>
       </c>
       <c r="J6" s="2">
-        <v>1.3428004E-2</v>
+        <v>1.7781999999999999E-2</v>
       </c>
       <c r="K6" s="2">
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>30</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>3.9678294918979895E-2</v>
+        <v>5.1237038170348768E-2</v>
       </c>
       <c r="D7" s="3">
         <v>30</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>4.2664047028890414E-2</v>
+        <v>5.5436760208524311E-2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
@@ -7226,48 +7257,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>35</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>3.4980136784059472E-2</v>
+        <v>4.4838300336265208E-2</v>
       </c>
       <c r="D8" s="3">
         <v>35</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>3.744470358136899E-2</v>
+        <v>4.8348225462486856E-2</v>
       </c>
       <c r="G8" s="2">
         <v>8.2560000000000001E-4</v>
       </c>
       <c r="H8" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.59</v>
       </c>
       <c r="J8" s="2">
         <v>8.2560000000000001E-4</v>
       </c>
       <c r="K8" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>40</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>3.1587117951610247E-2</v>
+        <v>4.0163206063236451E-2</v>
       </c>
       <c r="D9" s="3">
         <v>40</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>3.3648054512963314E-2</v>
+        <v>4.3143690114233031E-2</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>10</v>
@@ -7278,20 +7309,20 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>2.906419198747515E-2</v>
+        <v>3.6637207497577574E-2</v>
       </c>
       <c r="D10" s="3">
         <v>45</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>3.0799868363968138E-2</v>
+        <v>3.919515436450164E-2</v>
       </c>
       <c r="G10" s="9">
         <v>817</v>
@@ -7302,340 +7333,340 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>50</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>2.7150331031159953E-2</v>
+        <v>3.3915575927077606E-2</v>
       </c>
       <c r="D11" s="3">
         <v>50</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>2.861560625856031E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.6125818333735946E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>55</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>2.5679426444168308E-2</v>
+        <v>3.1778938534875026E-2</v>
       </c>
       <c r="D12" s="3">
         <v>55</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>2.6914198003034195E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.3695900280399836E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>60</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>2.4540739134169338E-2</v>
+        <v>3.0081046776395497E-2</v>
       </c>
       <c r="D13" s="3">
         <v>60</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>2.5574930134919353E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.1745545710135929E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>65</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
-        <v>2.3657603575703193E-2</v>
+        <v>2.872065165924138E-2</v>
       </c>
       <c r="D14" s="3">
         <v>65</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>2.4514231795582434E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.0164086126850641E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>70</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
-        <v>2.2975258679155688E-2</v>
+        <v>2.7625432474557236E-2</v>
       </c>
       <c r="D15" s="3">
         <v>70</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>2.3672409514571002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.8872472604762826E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>75</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>2.2453546312143104E-2</v>
+        <v>2.6742354035849066E-2</v>
       </c>
       <c r="D16" s="3">
         <v>75</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>2.3005688080219976E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.7812735931633002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>80</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>2.2062347875377638E-2</v>
+        <v>2.6031639953246376E-2</v>
       </c>
       <c r="D17" s="3">
         <v>80</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>2.2481236083780526E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6941399198281545E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>85</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>2.1778631498815686E-2</v>
+        <v>2.5462872987436436E-2</v>
       </c>
       <c r="D18" s="3">
         <v>85</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="1"/>
-        <v>2.2073947153856487E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6225215356512267E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>90</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>2.158448350575666E-2</v>
+        <v>2.5012395285620454E-2</v>
       </c>
       <c r="D19" s="3">
         <v>90</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>2.1764294112695291E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5638325591061474E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>95</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>2.146576151985799E-2</v>
+        <v>2.4661529595588861E-2</v>
       </c>
       <c r="D20" s="3">
         <v>95</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>2.1536860767334392E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5160315047773621E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>100</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>2.1411151640045624E-2</v>
+        <v>2.4395334115573996E-2</v>
       </c>
       <c r="D21" s="3">
         <v>100</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>2.1379314163403738E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4774851843324255E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>105</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>2.1411494994021518E-2</v>
+        <v>2.4201713101287749E-2</v>
       </c>
       <c r="D22" s="3">
         <v>105</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="1"/>
-        <v>2.1281670480699011E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4468714929307883E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>110</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
-        <v>2.1459297958996371E-2</v>
+        <v>2.4070770034676225E-2</v>
       </c>
       <c r="D23" s="3">
         <v>110</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="1"/>
-        <v>2.1235761139053039E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4231087084301831E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>115</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="0"/>
-        <v>2.1548370150926827E-2</v>
+        <v>2.3994329531260107E-2</v>
       </c>
       <c r="D24" s="3">
         <v>115</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>2.1234838180936418E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4053032342783005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>120</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
-        <v>2.1673552916443448E-2</v>
+        <v>2.3965578770639977E-2</v>
       </c>
       <c r="D25" s="3">
         <v>120</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="1"/>
-        <v>2.1273278308407976E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3927104066815502E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>125</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>2.1830512986715889E-2</v>
+        <v>2.3978794983680305E-2</v>
       </c>
       <c r="D26" s="3">
         <v>125</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>2.1346357951197142E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3847047080533167E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>130</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>2.2015583749656939E-2</v>
+        <v>2.4029135827266439E-2</v>
       </c>
       <c r="D27" s="3">
         <v>130</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="1"/>
-        <v>2.1450080242151875E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3807568542818486E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>135</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="0"/>
-        <v>2.2225641794970087E-2</v>
+        <v>2.4112476342448827E-2</v>
       </c>
       <c r="D28" s="3">
         <v>135</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>2.1581040442587112E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3804159737163936E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>140</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="0"/>
-        <v>2.2458009913829752E-2</v>
+        <v>2.4225280850127883E-2</v>
       </c>
       <c r="D29" s="3">
         <v>140</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="1"/>
-        <v>2.1736320205058522E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.383295604942021E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>145</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="0"/>
-        <v>2.2710380167593192E-2</v>
+        <v>2.4364501351079808E-2</v>
       </c>
       <c r="D30" s="3">
         <v>145</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="1"/>
-        <v>2.1913403712803731E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3890625915665511E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>150</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" si="0"/>
-        <v>2.2980752342770021E-2</v>
+        <v>2.4527496245977318E-2</v>
       </c>
       <c r="D31" s="3">
         <v>150</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="1"/>
-        <v>2.2110110591295362E-2</v>
+        <v>2.3974281980500927E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7653,16 +7684,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7676,20 +7707,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>5</v>
       </c>
       <c r="B2" s="4">
         <f>($G$6*(0.5*$G$8*($G$10)^2)*($G$4/(A2))+((A2)/((0.5*$G$8*($G$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.21981537164908649</v>
+        <v>0.29006795466734375</v>
       </c>
       <c r="D2" s="3">
         <v>5</v>
       </c>
       <c r="E2" s="4">
         <f>($J$6*(0.5*$J$8*($J$10)^2)*($J$4/(D2))+(D2)/(((0.5*$J$8*($J$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.23951077470768606</v>
+        <v>0.31695936167274791</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
@@ -7700,20 +7731,20 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B31" si="0">($G$6*(0.5*$G$8*($G$10)^2)*($G$4/(A3))+((A3)/((0.5*$G$8*($G$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.11073563907543017</v>
+        <v>0.14577773194887539</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E31" si="1">($J$6*(0.5*$J$8*($J$10)^2)*($J$4/(D3))+(D3)/(((0.5*$J$8*($J$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.12050256587820325</v>
+        <v>0.15915087510401957</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -7728,20 +7759,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>15</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>7.474370744016115E-2</v>
+        <v>9.8011548649476407E-2</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>8.116524227920241E-2</v>
+        <v>0.10684635481117487</v>
       </c>
       <c r="G4" s="2">
         <v>0.81950000000000001</v>
@@ -7756,20 +7787,20 @@
         <v>0.37440000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>20</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>5.7023726039488958E-2</v>
+        <v>7.4376375204844733E-2</v>
       </c>
       <c r="D5" s="3">
         <v>20</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>6.1745639987822079E-2</v>
+        <v>8.091782608730104E-2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -7784,48 +7815,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>25</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>4.6612524732655501E-2</v>
+        <v>6.0393605702120032E-2</v>
       </c>
       <c r="D6" s="3">
         <v>25</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>5.0293126219489934E-2</v>
+        <v>6.5539693991015613E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>1.231961E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="H6" s="2">
         <v>9.5</v>
       </c>
       <c r="J6" s="2">
-        <v>1.3428004E-2</v>
+        <v>1.7781999999999999E-2</v>
       </c>
       <c r="K6" s="2">
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>30</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>3.9855713472741382E-2</v>
+        <v>5.1237038170348768E-2</v>
       </c>
       <c r="D7" s="3">
         <v>30</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>4.2824156712681888E-2</v>
+        <v>5.5436760208524311E-2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
@@ -7840,48 +7871,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>35</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>3.5187125096781208E-2</v>
+        <v>4.4838300336265208E-2</v>
       </c>
       <c r="D8" s="3">
         <v>35</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>3.763149821245905E-2</v>
+        <v>4.8348225462486856E-2</v>
       </c>
       <c r="G8" s="2">
         <v>8.2560000000000001E-4</v>
       </c>
       <c r="H8" s="2">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="J8" s="2">
         <v>8.2560000000000001E-4</v>
       </c>
       <c r="K8" s="2">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>40</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>3.1823676023292224E-2</v>
+        <v>4.0163206063236451E-2</v>
       </c>
       <c r="D9" s="3">
         <v>40</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>3.3861534091351952E-2</v>
+        <v>4.3143690114233031E-2</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>10</v>
@@ -7892,20 +7923,20 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>2.933031981811738E-2</v>
+        <v>3.6637207497577574E-2</v>
       </c>
       <c r="D10" s="3">
         <v>45</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>3.1040032889655352E-2</v>
+        <v>3.919515436450164E-2</v>
       </c>
       <c r="G10" s="9">
         <v>817</v>
@@ -7916,340 +7947,340 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>50</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>2.7446028620762432E-2</v>
+        <v>3.3915575927077606E-2</v>
       </c>
       <c r="D11" s="3">
         <v>50</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>2.8882455731546106E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.6125818333735946E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>55</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>2.6004693792731032E-2</v>
+        <v>3.1778938534875026E-2</v>
       </c>
       <c r="D12" s="3">
         <v>55</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>2.7207732423318573E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.3695900280399836E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>60</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>2.4895576241692311E-2</v>
+        <v>3.0081046776395497E-2</v>
       </c>
       <c r="D13" s="3">
         <v>60</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>2.5895149502502313E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.1745545710135929E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>65</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
-        <v>2.4042010442186412E-2</v>
+        <v>2.872065165924138E-2</v>
       </c>
       <c r="D14" s="3">
         <v>65</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>2.4861136110463963E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.0164086126850641E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>70</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
-        <v>2.3389235304599156E-2</v>
+        <v>2.7625432474557236E-2</v>
       </c>
       <c r="D15" s="3">
         <v>70</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>2.4045998776751117E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.8872472604762826E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>75</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>2.2897092696546818E-2</v>
+        <v>2.6742354035849066E-2</v>
       </c>
       <c r="D16" s="3">
         <v>75</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>2.340596228969867E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.7812735931633002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>80</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>2.2535464018741604E-2</v>
+        <v>2.6031639953246376E-2</v>
       </c>
       <c r="D17" s="3">
         <v>80</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>2.2908195240557799E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6941399198281545E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>85</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>2.2281317401139897E-2</v>
+        <v>2.5462872987436436E-2</v>
       </c>
       <c r="D18" s="3">
         <v>85</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="1"/>
-        <v>2.2527591257932338E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6225215356512267E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>90</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>2.2116739167041117E-2</v>
+        <v>2.5012395285620454E-2</v>
       </c>
       <c r="D19" s="3">
         <v>90</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>2.2244623164069728E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5638325591061474E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>95</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>2.2027586940102695E-2</v>
+        <v>2.4661529595588861E-2</v>
       </c>
       <c r="D20" s="3">
         <v>95</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>2.2043874766007401E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5160315047773621E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>100</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>2.2002546819250578E-2</v>
+        <v>2.4395334115573996E-2</v>
       </c>
       <c r="D21" s="3">
         <v>100</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>2.191301310937533E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4774851843324255E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>105</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>2.2032459932186724E-2</v>
+        <v>2.4201713101287749E-2</v>
       </c>
       <c r="D22" s="3">
         <v>105</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="1"/>
-        <v>2.1842054373969182E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4468714929307883E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>110</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
-        <v>2.2109832656121819E-2</v>
+        <v>2.4070770034676225E-2</v>
       </c>
       <c r="D23" s="3">
         <v>110</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="1"/>
-        <v>2.1822829979621792E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4231087084301831E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>115</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="0"/>
-        <v>2.2228474607012525E-2</v>
+        <v>2.3994329531260107E-2</v>
       </c>
       <c r="D24" s="3">
         <v>115</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>2.1848591968803746E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4053032342783005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>120</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
-        <v>2.2383227131489391E-2</v>
+        <v>2.3965578770639977E-2</v>
       </c>
       <c r="D25" s="3">
         <v>120</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="1"/>
-        <v>2.1913717043573887E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3927104066815502E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>125</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>2.2569756960722082E-2</v>
+        <v>2.3978794983680305E-2</v>
       </c>
       <c r="D26" s="3">
         <v>125</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>2.2013481633661632E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3847047080533167E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>130</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>2.278439748262338E-2</v>
+        <v>2.4029135827266439E-2</v>
       </c>
       <c r="D27" s="3">
         <v>130</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="1"/>
-        <v>2.2143888871914943E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3807568542818486E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>135</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="0"/>
-        <v>2.3024025286896777E-2</v>
+        <v>2.4112476342448827E-2</v>
       </c>
       <c r="D28" s="3">
         <v>135</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>2.2301534019648763E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3804159737163936E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>140</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="0"/>
-        <v>2.3285963164716688E-2</v>
+        <v>2.4225280850127883E-2</v>
       </c>
       <c r="D29" s="3">
         <v>140</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="1"/>
-        <v>2.2483498729418749E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.383295604942021E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>145</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="0"/>
-        <v>2.3567903177440376E-2</v>
+        <v>2.4364501351079808E-2</v>
       </c>
       <c r="D30" s="3">
         <v>145</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="1"/>
-        <v>2.2687267184462536E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3890625915665511E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>150</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" si="0"/>
-        <v>2.3867845111577458E-2</v>
+        <v>2.4527496245977318E-2</v>
       </c>
       <c r="D31" s="3">
         <v>150</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="1"/>
-        <v>2.2910659010252746E-2</v>
+        <v>2.3974281980500927E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8267,16 +8298,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8290,20 +8321,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>5</v>
       </c>
       <c r="B2" s="4">
         <f>($G$6*(0.5*$G$8*($G$10)^2)*($G$4/(A2))+((A2)/((0.5*$G$8*($G$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.21975923922529753</v>
+        <v>0.29006795466734375</v>
       </c>
       <c r="D2" s="3">
         <v>5</v>
       </c>
       <c r="E2" s="4">
         <f>($J$6*(0.5*$J$8*($J$10)^2)*($J$4/(D2))+(D2)/(((0.5*$J$8*($J$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.239460118536543</v>
+        <v>0.31695936167274791</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
@@ -8314,20 +8345,20 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B31" si="0">($G$6*(0.5*$G$8*($G$10)^2)*($G$4/(A3))+((A3)/((0.5*$G$8*($G$10)^2)*3.14*$H$6*$H$8*$G$4)))*$H$4</f>
-        <v>0.11062337422785229</v>
+        <v>0.14577773194887539</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E31" si="1">($J$6*(0.5*$J$8*($J$10)^2)*($J$4/(D3))+(D3)/(((0.5*$J$8*($J$10)^2)*3.14*$K$6*$K$8)*$J$4))*$K$4</f>
-        <v>0.12040125353591712</v>
+        <v>0.15915087510401957</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -8342,20 +8373,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>15</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>7.4575310168794318E-2</v>
+        <v>9.8011548649476407E-2</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>8.1013273765773219E-2</v>
+        <v>0.10684635481117487</v>
       </c>
       <c r="G4" s="2">
         <v>0.81950000000000001</v>
@@ -8370,20 +8401,20 @@
         <v>0.37440000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>20</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>5.6799196344333176E-2</v>
+        <v>7.4376375204844733E-2</v>
       </c>
       <c r="D5" s="3">
         <v>20</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>6.1543015303249814E-2</v>
+        <v>8.091782608730104E-2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -8398,48 +8429,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>25</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>4.6331862613710771E-2</v>
+        <v>6.0393605702120032E-2</v>
       </c>
       <c r="D6" s="3">
         <v>25</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>5.0039845363774607E-2</v>
+        <v>6.5539693991015613E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>1.231961E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="H6" s="2">
         <v>9.5</v>
       </c>
       <c r="J6" s="2">
-        <v>1.3428004E-2</v>
+        <v>1.7781999999999999E-2</v>
       </c>
       <c r="K6" s="2">
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>30</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>3.9518918930007717E-2</v>
+        <v>5.1237038170348768E-2</v>
       </c>
       <c r="D7" s="3">
         <v>30</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>4.2520219685823493E-2</v>
+        <v>5.5436760208524311E-2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
@@ -8454,20 +8485,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>35</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>3.4794198130258594E-2</v>
+        <v>4.4838300336265208E-2</v>
       </c>
       <c r="D8" s="3">
         <v>35</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>3.7276905014457587E-2</v>
+        <v>4.8348225462486856E-2</v>
       </c>
       <c r="G8" s="2">
         <v>8.2560000000000001E-4</v>
@@ -8482,20 +8513,20 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>40</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>3.1374616632980669E-2</v>
+        <v>4.0163206063236451E-2</v>
       </c>
       <c r="D9" s="3">
         <v>40</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>3.3456284722207422E-2</v>
+        <v>4.3143690114233031E-2</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>10</v>
@@ -8506,20 +8537,20 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>2.8825128004016876E-2</v>
+        <v>3.6637207497577574E-2</v>
       </c>
       <c r="D10" s="3">
         <v>45</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>3.0584127349367756E-2</v>
+        <v>3.919515436450164E-2</v>
       </c>
       <c r="G10" s="9">
         <v>817</v>
@@ -8530,340 +8561,340 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>50</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>2.6884704382872986E-2</v>
+        <v>3.3915575927077606E-2</v>
       </c>
       <c r="D11" s="3">
         <v>50</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>2.8375894020115446E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.6125818333735946E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>55</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>2.5387237131052641E-2</v>
+        <v>3.1778938534875026E-2</v>
       </c>
       <c r="D12" s="3">
         <v>55</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>2.6650514540744841E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.3695900280399836E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>60</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>2.4221987156224971E-2</v>
+        <v>3.0081046776395497E-2</v>
       </c>
       <c r="D13" s="3">
         <v>60</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>2.5287275448785517E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.1745545710135929E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>65</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
-        <v>2.3312288932930129E-2</v>
+        <v>2.872065165924138E-2</v>
       </c>
       <c r="D14" s="3">
         <v>65</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>2.4202605885604103E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.0164086126850641E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>70</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
-        <v>2.2603381371553929E-2</v>
+        <v>2.7625432474557236E-2</v>
       </c>
       <c r="D15" s="3">
         <v>70</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>2.3336812380748192E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.8872472604762826E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>75</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>2.2055106339712648E-2</v>
+        <v>2.6742354035849066E-2</v>
       </c>
       <c r="D16" s="3">
         <v>75</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>2.2646119722552677E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.7812735931633002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>80</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>2.1637345238118489E-2</v>
+        <v>2.6031639953246376E-2</v>
       </c>
       <c r="D17" s="3">
         <v>80</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>2.2097696502268737E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6941399198281545E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>85</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>2.1327066196727834E-2</v>
+        <v>2.5462872987436436E-2</v>
       </c>
       <c r="D18" s="3">
         <v>85</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="1"/>
-        <v>2.1666436348500216E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6225215356512267E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>90</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>2.1106355538840108E-2</v>
+        <v>2.5012395285620454E-2</v>
       </c>
       <c r="D19" s="3">
         <v>90</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>2.1332812083494534E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5638325591061474E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>95</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>2.0961070888112745E-2</v>
+        <v>2.4661529595588861E-2</v>
       </c>
       <c r="D20" s="3">
         <v>95</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>2.1081407514289146E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5160315047773621E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>100</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>2.0879898343471679E-2</v>
+        <v>2.4395334115573996E-2</v>
       </c>
       <c r="D21" s="3">
         <v>100</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>2.0899889686514003E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4774851843324255E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>105</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>2.085367903261888E-2</v>
+        <v>2.4201713101287749E-2</v>
       </c>
       <c r="D22" s="3">
         <v>105</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="1"/>
-        <v>2.077827477996479E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4468714929307883E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>110</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
-        <v>2.087491933276503E-2</v>
+        <v>2.4070770034676225E-2</v>
       </c>
       <c r="D23" s="3">
         <v>110</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="1"/>
-        <v>2.0708394214474332E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4231087084301831E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>115</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="0"/>
-        <v>2.0937428859866793E-2</v>
+        <v>2.3994329531260107E-2</v>
       </c>
       <c r="D24" s="3">
         <v>115</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>2.0683500032513225E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4053032342783005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>120</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
-        <v>2.1036048960554717E-2</v>
+        <v>2.3965578770639977E-2</v>
       </c>
       <c r="D25" s="3">
         <v>120</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="1"/>
-        <v>2.0697968936140298E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3927104066815502E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>125</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>2.1166446365998456E-2</v>
+        <v>2.3978794983680305E-2</v>
       </c>
       <c r="D26" s="3">
         <v>125</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>2.0747077355084974E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3847047080533167E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>130</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>2.1324954464110812E-2</v>
+        <v>2.4029135827266439E-2</v>
       </c>
       <c r="D27" s="3">
         <v>130</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="1"/>
-        <v>2.0826828422195222E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3807568542818486E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>135</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="0"/>
-        <v>2.1508449844595264E-2</v>
+        <v>2.4112476342448827E-2</v>
       </c>
       <c r="D28" s="3">
         <v>135</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>2.0933817398785973E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3804159737163936E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>140</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="0"/>
-        <v>2.1714255298626233E-2</v>
+        <v>2.4225280850127883E-2</v>
       </c>
       <c r="D29" s="3">
         <v>140</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="1"/>
-        <v>2.1065125937412894E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.383295604942021E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>145</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="0"/>
-        <v>2.1940062887560969E-2</v>
+        <v>2.4364501351079808E-2</v>
       </c>
       <c r="D30" s="3">
         <v>145</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="1"/>
-        <v>2.1218238221313614E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3890625915665511E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>150</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" si="0"/>
-        <v>2.2183872397909109E-2</v>
+        <v>2.4527496245977318E-2</v>
       </c>
       <c r="D31" s="3">
         <v>150</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="1"/>
-        <v>2.1390973875960763E-2</v>
+        <v>2.3974281980500927E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
